--- a/Pupariation_data_example.xlsx
+++ b/Pupariation_data_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JQ/Documents/_CODE REPOS/GitHub/Survival_functions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JQ/Documents/__REPOS/GitHub/Survival_functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1604E396-0FBC-0F45-A500-787ED18D5AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8D63CF-2152-034B-A514-E38CE3AA63B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40920" windowHeight="25180" xr2:uid="{FF948C06-BD39-497C-ADCD-B8D8DC22913A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40920" windowHeight="25180" activeTab="1" xr2:uid="{FF948C06-BD39-497C-ADCD-B8D8DC22913A}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -863,9 +863,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -903,7 +903,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1009,7 +1009,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1151,7 +1151,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1161,7 +1161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3EAAA9-B59A-44C6-B69E-B4E274BF5D86}">
   <dimension ref="A1:H1129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A78" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -16303,8 +16303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE2FC48-BB4B-3942-A32C-6526CB227AE5}">
   <dimension ref="A1:P232"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -20552,8 +20552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0596E2C7-6F61-1E40-9697-BC06A07B8BB6}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
